--- a/assets/disciplinas/LOQ4031.xlsx
+++ b/assets/disciplinas/LOQ4031.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-1,EM-1,EA-1,EB-1,EQD-1,EQN-1</t>
+    <t>EF-1</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4031.xlsx
+++ b/assets/disciplinas/LOQ4031.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Dar o embasamento dos conceitos elementares em química aos alunos, capacitando-os para o prosseguimento dos estudos nas disciplinas correlatas posteriores, principalmente quanto aos conceitos da estrutura atômica; das ligações química e forças intermoleculares; da geometria das moléculas; da natureza dos compostos; das reações químicas em solução aquosa, tanto de dupla-troca como de oxi-redução; das propriedades do estado gasoso e das soluções e da estequiometria e cálculos em química, com ênfase em casos contendo reagentes limitantes, pureza de reagentes e rendimento de reação.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Princípios elementares em química. Estrutura Atômica e Tabela Periódica. A Ligação Química. Natureza dos Compostos. Reações Químicas em Solução Aquosa. Gases. Soluções. Estequiometria e Cálculos em Química.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Princípios elementares em química: Sistemas de Unidades (Definição das Unidades mais usadas em Engenharia e transformações entre sistemas).Estrutura Atômica e Tabela Periódica: Natureza elétrica da matéria. A carga do elétron. O núcleo do átomo. Espectros de emissão e de absorção atômica. Configuração eletrônica dos elementos. Partículas Elementares. A Lei e a tabela Periódica.A Ligação Química: A ligação eletrovalente. A ligação covalente. Hibridação. Polaridade da ligação. Natureza dos Compostos: Ácidos e bases (Arrhenius, Bronsted-Lowry e Lewis). Forças intermoleculares.Reações Químicas em Solução Aquosa : Terminologia das soluções. Eletrólitos e não eletrólitos. Reações iônicas. Reações sem transferência de elétron e seu balanceamento. Preparação de sais inorgânicos (por dupla troca). Oxidação e redução. Número de oxidação. Reações de óxido redução. Métodos de balanceamento de reações de oxi-redução (Variação do Nox, via decomposição do agente oxidante, íon-elétron e pelo Potencial Padrão de Redução).Gases: Variáveis de estado. Lei combinada dos gases. Experiência de Torriceli. Teoria cinética dos gases. Gás ideal e real. Princípio de Avogadro.Soluções: Natureza das soluções. Dispersões coloidais e suspensões. Tipos de soluções. Unidades de concentração (Molaridade, fração molar, ppm, normalidade, molalidade). O processo de dissolução. Calor de dissolução. Solubilidade e temperatura.Estequiometria e Cálculos em Química : Cálculos baseados em equações químicas. Cálculos com reagentes limitantes e reagentes com pureza. Rendimento teórico e centesimal. Resolução de exercícios envolvendo estequiometria industrial.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,29 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média para a primeira avaliação será calculada a partir das notas das duas provas, P1 e P2, segundo a fórmula: M1=(P1+2xP2)/3. Alunos com nota final igual ou superior a 5,0 estão aprovados; inferior a 5,0 e igual ou superior a 3,0 estão de recuperação;</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação consistirá de uma prova envolvendo o assunto do semestre todo, à qual será atribuída nota NR. A média da segunda avaliação será calculada segunda a fórmula: M2=(M1+NR)/2. Alunos com nota M2 igual ou superior a 5,0 estarão aprovados, inferior a 5,0 estarão reprovados.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ATKINS, Peter., Princípios de Química, questionando a vida moderna e o meio ambiente. 3ª Ed. Porto Alegre: Editora Bookman, 2006
-BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos,  1981
-BROWN, T.L. ET al. Química a ciência central. 9.ed.  São Paulo: Pearson Prentice Hall, 2005-2007
-CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010.
-RUSSEL, J.B. Química geral.  São Paulo: MacGrall-Hill</t>
   </si>
 </sst>
 </file>
@@ -493,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -665,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
